--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamish\Documents\UiPath\RpaUiPathProcess\Processes\FA_BillingMilestone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D57760-99DA-4992-ADEF-ECACB98F185A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B0EC7-3466-428B-9F72-F67A60961F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -154,12 +154,6 @@
     <t>Miles</t>
   </si>
   <si>
-    <t>Exchange Mailbox</t>
-  </si>
-  <si>
-    <t>Inbox</t>
-  </si>
-  <si>
     <t>Network Share Bot Files-DEV</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>Network Share Bot Files-PROD</t>
   </si>
   <si>
-    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\FA_BillingMilestone</t>
-  </si>
-  <si>
     <t>UniFi_URL-DEV</t>
   </si>
   <si>
@@ -361,9 +352,6 @@
     <t>HtmlLogo</t>
   </si>
   <si>
-    <t>Data\logo.png</t>
-  </si>
-  <si>
     <t>UniFiPath_MaintainStagedProposals</t>
   </si>
   <si>
@@ -464,6 +452,30 @@
   </si>
   <si>
     <t>I couldn't find {0} in the milestone approvals I've sent out</t>
+  </si>
+  <si>
+    <t>HtmlReport</t>
+  </si>
+  <si>
+    <t>Data\template.html</t>
+  </si>
+  <si>
+    <t>SystemError TransactionError</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Transaction Error</t>
+  </si>
+  <si>
+    <t>I couldn't handle setting up a response: {0} at: {1}</t>
+  </si>
+  <si>
+    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\FA_BillingMilestone\Bot Files</t>
+  </si>
+  <si>
+    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\FA_BillingMilestone\Email Store</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -526,6 +538,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -901,18 +916,18 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -931,18 +946,19 @@
       <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -950,71 +966,63 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
+      <c r="A11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-    </row>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1994,8 +2002,6 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2003,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2166,62 +2172,67 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3193,6 +3204,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3248,52 +3260,52 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,10 +4311,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAA5A4A-F8AE-46C5-BCF2-977A2C0C3B13}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -4334,25 +4346,25 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -4364,74 +4376,83 @@
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -4449,294 +4470,295 @@
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>88</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="3" t="s">
-        <v>104</v>
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>29</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>30</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45"/>
@@ -4748,6 +4770,11 @@
       <c r="B46"/>
       <c r="C46"/>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamish\Documents\UiPath\RpaUiPathProcess\Processes\FA_BillingMilestone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B0EC7-3466-428B-9F72-F67A60961F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F9D93C-E8C1-4AF5-BBBB-DD7816E959FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -103,39 +103,6 @@
     <t>Image accuracy high value, for images that have low contrast. Must be double</t>
   </si>
   <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful</t>
-  </si>
-  <si>
-    <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception</t>
-  </si>
-  <si>
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
   </si>
   <si>
@@ -202,141 +169,24 @@
     <t>Config Not Initialised</t>
   </si>
   <si>
-    <t>I couldn't get my settings from the config: {0}</t>
-  </si>
-  <si>
-    <t>SystemError_InitExchange</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Exchange Error</t>
-  </si>
-  <si>
-    <t>I couldn't access my email as {0}: {1} at: {2}</t>
-  </si>
-  <si>
-    <t>SystemError_FileServer</t>
-  </si>
-  <si>
     <t>Network Error</t>
   </si>
   <si>
-    <t>I couldn't map {0} due to: {1}</t>
-  </si>
-  <si>
-    <t>SystemError_AccountantFile</t>
-  </si>
-  <si>
-    <t>I couldn't access {0} for Acc lookup: {1} at: {2}</t>
-  </si>
-  <si>
-    <t>SystemError_LoginUniFi</t>
-  </si>
-  <si>
     <t>UniFi Error</t>
   </si>
   <si>
-    <t>I couldn't login as {0} to UniFi at {1}: {2} at {3}</t>
-  </si>
-  <si>
-    <t>RuleException_NoEmails</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>I couldn't find any emails in {0}</t>
-  </si>
-  <si>
-    <t>RuleException_ValidateRMNum</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>Email Error</t>
-  </si>
-  <si>
-    <t>The RM number is missing or the email is not a proforma template</t>
-  </si>
-  <si>
-    <t>RuleException_ValidateProforma</t>
-  </si>
-  <si>
-    <t>I couldn't validate {0} in the proforma email</t>
-  </si>
-  <si>
-    <t>RuleException_SearchAccountant</t>
-  </si>
-  <si>
-    <t>Accountant Not Found</t>
-  </si>
-  <si>
-    <t>I couldn't match {0} to an accountant name</t>
-  </si>
-  <si>
-    <t>RuleException_SearchRMNum</t>
-  </si>
-  <si>
-    <t>I searched for {0} and found no results</t>
-  </si>
-  <si>
-    <t>RuleException_UpdateProforma</t>
-  </si>
-  <si>
-    <t>I wasn't able to update {0} as no rows were updated: {1}</t>
-  </si>
-  <si>
-    <t>SystemError_UnhandledExchange</t>
-  </si>
-  <si>
-    <t>I couldn't scrape proforma data from the email {0}</t>
-  </si>
-  <si>
-    <t>SystemError_NavigateUniFi</t>
-  </si>
-  <si>
-    <t>I got lost while navigating to {0}</t>
-  </si>
-  <si>
-    <t>SystemError_ProformaEntry</t>
-  </si>
-  <si>
-    <t>I couldn't update row {0} due to: {1}</t>
-  </si>
-  <si>
-    <t>SystemError_CreateFolder</t>
-  </si>
-  <si>
-    <t>I couldn't create the folder {0} at {1}</t>
-  </si>
-  <si>
-    <t>SystemError_SaveEmail</t>
-  </si>
-  <si>
-    <t>I couldn't save the email to {0}</t>
-  </si>
-  <si>
-    <t>SystemError_UnhandledUniFi</t>
-  </si>
-  <si>
     <t>System Error</t>
   </si>
   <si>
-    <t>LogMessage_SkippedProforma</t>
-  </si>
-  <si>
-    <t>Row {0} skipped, {1}</t>
-  </si>
-  <si>
-    <t>LogMessage_UpdatedProforma</t>
-  </si>
-  <si>
-    <t>Row {0} updated, {1}</t>
-  </si>
-  <si>
     <t>Exchange_ServerName</t>
   </si>
   <si>
@@ -352,15 +202,6 @@
     <t>HtmlLogo</t>
   </si>
   <si>
-    <t>UniFiPath_MaintainStagedProposals</t>
-  </si>
-  <si>
-    <t>Grants\Proposals\Maintain Staged Proposals</t>
-  </si>
-  <si>
-    <t>Path from main menu to Proforma entry</t>
-  </si>
-  <si>
     <t>Credentials_UniFi</t>
   </si>
   <si>
@@ -415,9 +256,6 @@
     <t>UpdateQueue</t>
   </si>
   <si>
-    <t>I couldn't send this months approval requests: {0} at: {1}</t>
-  </si>
-  <si>
     <t>I found issues running the milestone report query: {0} at: {1}</t>
   </si>
   <si>
@@ -469,13 +307,163 @@
     <t>Transaction Error</t>
   </si>
   <si>
-    <t>I couldn't handle setting up a response: {0} at: {1}</t>
-  </si>
-  <si>
     <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\FA_BillingMilestone\Bot Files</t>
   </si>
   <si>
     <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\FA_BillingMilestone\Email Store</t>
+  </si>
+  <si>
+    <t>Reporting Tools\Query\Query Viewer</t>
+  </si>
+  <si>
+    <t>UniFiPath Query Viewer</t>
+  </si>
+  <si>
+    <t>Grants\Awards\Award Profile</t>
+  </si>
+  <si>
+    <t>UniFiPath Award Profile</t>
+  </si>
+  <si>
+    <t>Path from main menu to billing milestone monthly query</t>
+  </si>
+  <si>
+    <t>Path from main menu to search page to update billing milestones</t>
+  </si>
+  <si>
+    <t>I couldn't load my settings: {0} at {1}</t>
+  </si>
+  <si>
+    <t>Application Error</t>
+  </si>
+  <si>
+    <t>SystemError FileServer</t>
+  </si>
+  <si>
+    <t>I couldn't map {0} or {1} due to: {2} at {3}</t>
+  </si>
+  <si>
+    <t>SystemError InitExchange</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>I couldn't access my email as {0} due to: {1} at: {2}</t>
+  </si>
+  <si>
+    <t>SystemError LoginUniFi</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>I got lost while navigating to {1}</t>
+  </si>
+  <si>
+    <t>I couldn't login as {0} to UniFi at {1} due to: {2} at {3}</t>
+  </si>
+  <si>
+    <t>SystemError NavigateUniFi</t>
+  </si>
+  <si>
+    <t>SystemError ActivateDispatched</t>
+  </si>
+  <si>
+    <t>Failed to activate dispatched transactions. {0} at {1}</t>
+  </si>
+  <si>
+    <t>LogMessage StartDispatch</t>
+  </si>
+  <si>
+    <t>LogMessage StartProcess</t>
+  </si>
+  <si>
+    <t>Running dispatch for {0:ddd, dd MMM}</t>
+  </si>
+  <si>
+    <t>SystemError KillProcesses</t>
+  </si>
+  <si>
+    <t>I couldn't clean up my environment due to: {0} at {1}</t>
+  </si>
+  <si>
+    <t>SystemError PostponeDispatched</t>
+  </si>
+  <si>
+    <t>Failed to postpone dispatched transactions. {0} at {1}</t>
+  </si>
+  <si>
+    <t>System error during {0} due to {1} at {2}</t>
+  </si>
+  <si>
+    <t>LogMessage SystemError</t>
+  </si>
+  <si>
+    <t>LogMessage RuleException</t>
+  </si>
+  <si>
+    <t>Rule exception during {0} due to {1} at {2}</t>
+  </si>
+  <si>
+    <t>Finished {0}. Now fetching next message to process</t>
+  </si>
+  <si>
+    <t>LogMessage GotTransaction</t>
+  </si>
+  <si>
+    <t>LogMessage NoTransactions</t>
+  </si>
+  <si>
+    <t>No more messages to process at number {0}</t>
+  </si>
+  <si>
+    <t>SystemError GetMailExchange</t>
+  </si>
+  <si>
+    <t>I couldn't get email number {0} due to: {1} at {2}</t>
+  </si>
+  <si>
+    <t>Got message number {0}, received {1:yyyy-MM-dd}  with subject {2}</t>
+  </si>
+  <si>
+    <t>LogMessage SetStatusError</t>
+  </si>
+  <si>
+    <t>Failed to set  transaction status number {0} due to: {1} at {2}</t>
+  </si>
+  <si>
+    <t>LogMessage TakeScreenshot</t>
+  </si>
+  <si>
+    <t>Couldn't take screenshot for {0} due to: {1} at {2}</t>
+  </si>
+  <si>
+    <t>RuleException NoResponse</t>
+  </si>
+  <si>
+    <t>Dispatch Error</t>
+  </si>
+  <si>
+    <t>No reply for {0:MMMM} approval, sent {1} requests</t>
+  </si>
+  <si>
+    <t>RuleException ApprovalExpired</t>
+  </si>
+  <si>
+    <t>Approval for {0:MMMM} has expired after {1} months</t>
+  </si>
+  <si>
+    <t>I couldn't handle the response for {0} due to: {1} at: {2}</t>
+  </si>
+  <si>
+    <t>RuleException NotApproved</t>
+  </si>
+  <si>
+    <t>Milestone Rejected</t>
+  </si>
+  <si>
+    <t>The billing milestone for Contract {0} and Milestone {1} was rejected. Check {2} for further information</t>
   </si>
 </sst>
 </file>
@@ -528,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -541,6 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -905,120 +894,120 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2001,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2152,7 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
@@ -2172,65 +2161,65 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3260,52 +3249,52 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4311,10 +4300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAA5A4A-F8AE-46C5-BCF2-977A2C0C3B13}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4332,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -4346,436 +4335,784 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>61</v>
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>146</v>
+        <v>109</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="8"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="8"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamish\Documents\UiPath\RpaUiPathProcess\Processes\FA_BillingMilestone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F9D93C-E8C1-4AF5-BBBB-DD7816E959FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D519EB-81E4-4C15-A37B-89CF903BB21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33930" yWindow="2925" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -274,12 +274,6 @@
     <t>SystemError ExcelReport</t>
   </si>
   <si>
-    <t>Temporary ReportFile</t>
-  </si>
-  <si>
-    <t>Data\UQ_GM_REPT_MILESTONE_DUE.xls</t>
-  </si>
-  <si>
     <t>I couldn't access {0} for getting the billing milestones:  {1} and {2} at: {3}</t>
   </si>
   <si>
@@ -316,15 +310,9 @@
     <t>Reporting Tools\Query\Query Viewer</t>
   </si>
   <si>
-    <t>UniFiPath Query Viewer</t>
-  </si>
-  <si>
     <t>Grants\Awards\Award Profile</t>
   </si>
   <si>
-    <t>UniFiPath Award Profile</t>
-  </si>
-  <si>
     <t>Path from main menu to billing milestone monthly query</t>
   </si>
   <si>
@@ -464,6 +452,24 @@
   </si>
   <si>
     <t>The billing milestone for Contract {0} and Milestone {1} was rejected. Check {2} for further information</t>
+  </si>
+  <si>
+    <t>SystemError ScrapeError</t>
+  </si>
+  <si>
+    <t>I couldn't read the response correctly: {0} at {1}</t>
+  </si>
+  <si>
+    <t>UniFi ReportQuery</t>
+  </si>
+  <si>
+    <t>UniFi Award Profile</t>
+  </si>
+  <si>
+    <t>UniFi Query Viewer</t>
+  </si>
+  <si>
+    <t>UQ_GM_REPT_MILESTONE_DUE</t>
   </si>
 </sst>
 </file>
@@ -847,7 +853,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -936,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,7 +965,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1998,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2159,69 +2165,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3200,6 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4300,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAA5A4A-F8AE-46C5-BCF2-977A2C0C3B13}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4353,28 +4359,28 @@
         <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>52</v>
@@ -4383,28 +4389,28 @@
         <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>48</v>
@@ -4413,28 +4419,28 @@
         <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>44</v>
@@ -4443,13 +4449,13 @@
         <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>44</v>
@@ -4458,13 +4464,13 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>52</v>
@@ -4473,7 +4479,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -4503,16 +4509,16 @@
         <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>78</v>
@@ -4524,92 +4530,101 @@
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>52</v>
+        <v>137</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -4619,89 +4634,89 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>123</v>
       </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>119</v>
+      </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="5"/>
     </row>
@@ -4952,6 +4967,9 @@
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -4970,9 +4988,6 @@
       <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
       <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -4999,21 +5014,21 @@
       <c r="D84" s="3"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="5"/>
+    </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
@@ -5044,18 +5059,18 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="8"/>
@@ -5074,22 +5089,23 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="8"/>
-      <c r="C109" s="3"/>
-    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113"/>
@@ -5110,6 +5126,11 @@
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamish\Documents\UiPath\RpaUiPathProcess\Processes\FA_BillingMilestone\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\RpaUiPathProcess\Processes\FA_BillingMilestone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D519EB-81E4-4C15-A37B-89CF903BB21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33930" yWindow="2925" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33930" yWindow="2925" windowWidth="21600" windowHeight="11505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -470,12 +469,15 @@
   </si>
   <si>
     <t>UQ_GM_REPT_MILESTONE_DUE</t>
+  </si>
+  <si>
+    <t>Sam'sCreds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -849,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,10 +2005,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -3206,11 +3208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3258,7 +3260,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4305,7 +4307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAA5A4A-F8AE-46C5-BCF2-977A2C0C3B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">

--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -255,15 +255,9 @@
     <t>UpdateQueue</t>
   </si>
   <si>
-    <t>I found issues running the milestone report query: {0} at: {1}</t>
-  </si>
-  <si>
     <t>Mail Error</t>
   </si>
   <si>
-    <t>I couldn't send billing milestone approvals: {0} at: {1}</t>
-  </si>
-  <si>
     <t>Excel Error</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>SystemError ExcelReport</t>
   </si>
   <si>
-    <t>I couldn't access {0} for getting the billing milestones:  {1} and {2} at: {3}</t>
-  </si>
-  <si>
     <t>SystemError DispatchMail</t>
   </si>
   <si>
@@ -336,9 +327,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>I couldn't access my email as {0} due to: {1} at: {2}</t>
-  </si>
-  <si>
     <t>SystemError LoginUniFi</t>
   </si>
   <si>
@@ -441,9 +429,6 @@
     <t>Approval for {0:MMMM} has expired after {1} months</t>
   </si>
   <si>
-    <t>I couldn't handle the response for {0} due to: {1} at: {2}</t>
-  </si>
-  <si>
     <t>RuleException NotApproved</t>
   </si>
   <si>
@@ -472,6 +457,21 @@
   </si>
   <si>
     <t>Sam'sCreds</t>
+  </si>
+  <si>
+    <t>I couldn't access my email as {0} due to: {1} at {2}</t>
+  </si>
+  <si>
+    <t>I found issues running the milestone report query: {0} at {1}</t>
+  </si>
+  <si>
+    <t>I couldn't access {0} for getting the billing milestones:  {1} at {3}</t>
+  </si>
+  <si>
+    <t>I couldn't send billing milestone approvals: {0} at {1}</t>
+  </si>
+  <si>
+    <t>I couldn't handle the response for {0} due to: {1} at {2}</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,12 +2182,12 @@
         <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>57</v>
@@ -2202,32 +2202,32 @@
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3212,7 +3212,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3260,7 +3260,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4310,7 +4310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -4361,28 +4361,28 @@
         <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>52</v>
@@ -4391,28 +4391,28 @@
         <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>48</v>
@@ -4421,28 +4421,28 @@
         <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>44</v>
@@ -4451,13 +4451,13 @@
         <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>44</v>
@@ -4466,28 +4466,28 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>48</v>
@@ -4496,67 +4496,67 @@
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -4571,61 +4571,61 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -4643,81 +4643,81 @@
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="5"/>

--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33930" yWindow="2925" windowWidth="21600" windowHeight="11505" activeTab="2"/>
+    <workbookView xWindow="33930" yWindow="2925" windowWidth="21600" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Reporting Tools\Query\Query Viewer</t>
   </si>
   <si>
-    <t>Grants\Awards\Award Profile</t>
-  </si>
-  <si>
     <t>Path from main menu to billing milestone monthly query</t>
   </si>
   <si>
@@ -447,18 +444,12 @@
     <t>UniFi ReportQuery</t>
   </si>
   <si>
-    <t>UniFi Award Profile</t>
-  </si>
-  <si>
     <t>UniFi Query Viewer</t>
   </si>
   <si>
     <t>UQ_GM_REPT_MILESTONE_DUE</t>
   </si>
   <si>
-    <t>Sam'sCreds</t>
-  </si>
-  <si>
     <t>I couldn't access my email as {0} due to: {1} at {2}</t>
   </si>
   <si>
@@ -472,6 +463,21 @@
   </si>
   <si>
     <t>I couldn't handle the response for {0} due to: {1} at {2}</t>
+  </si>
+  <si>
+    <t>UniFi General Information</t>
+  </si>
+  <si>
+    <t>FA_BillingMilestone_DEV_UniFi_Login</t>
+  </si>
+  <si>
+    <t>Customer Contracts\Create and Amend\General Information</t>
+  </si>
+  <si>
+    <t>UniFi Define Billing Plan</t>
+  </si>
+  <si>
+    <t>Customer Contracts\Schedule and Process Billing\Define Billing Plan</t>
   </si>
 </sst>
 </file>
@@ -2008,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2202,32 +2208,43 @@
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
         <v>141</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3211,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3260,7 +3277,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4311,7 +4328,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4361,28 +4378,28 @@
         <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>52</v>
@@ -4391,28 +4408,28 @@
         <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>48</v>
@@ -4421,28 +4438,28 @@
         <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>44</v>
@@ -4451,13 +4468,13 @@
         <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>44</v>
@@ -4466,13 +4483,13 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>52</v>
@@ -4481,7 +4498,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -4496,7 +4513,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -4511,7 +4528,7 @@
         <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -4526,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4541,13 +4558,13 @@
         <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>52</v>
@@ -4556,7 +4573,7 @@
         <v>77</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -4571,31 +4588,31 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -4616,16 +4633,16 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -4643,81 +4660,81 @@
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="5"/>

--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\RpaUiPathProcess\Processes\FA_BillingMilestone\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamish\Documents\UiPath\RpaUiPathProcess\Processes\FA_BillingMilestone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E733CA9-952B-4F68-9E9B-099DB41395C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33930" yWindow="2925" windowWidth="21600" windowHeight="11505" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -447,9 +448,6 @@
     <t>UniFi Query Viewer</t>
   </si>
   <si>
-    <t>UQ_GM_REPT_MILESTONE_DUE</t>
-  </si>
-  <si>
     <t>I couldn't access my email as {0} due to: {1} at {2}</t>
   </si>
   <si>
@@ -478,12 +476,36 @@
   </si>
   <si>
     <t>Customer Contracts\Schedule and Process Billing\Define Billing Plan</t>
+  </si>
+  <si>
+    <t>UQ_GM_REPT_MILESTONE_TEMP</t>
+  </si>
+  <si>
+    <t>https://fs92prep.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>RuleException ShouldntUpdate</t>
+  </si>
+  <si>
+    <t>SystemError UpdateError</t>
+  </si>
+  <si>
+    <t>Shouldn't Update</t>
+  </si>
+  <si>
+    <t>I couldn't update the billing milestone due to: {0} at {1}</t>
+  </si>
+  <si>
+    <t>The billing milestone wasn't updated because: {0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1035,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,11 +2033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2219,10 +2241,10 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>93</v>
@@ -2230,10 +2252,10 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>93</v>
@@ -2244,7 +2266,7 @@
         <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3225,11 +3247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3299,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4324,11 +4346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4423,7 +4445,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4513,7 +4535,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -4528,7 +4550,7 @@
         <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -4543,7 +4565,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4558,7 +4580,7 @@
         <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -4578,32 +4600,32 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>87</v>
@@ -4612,142 +4634,161 @@
         <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>132</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="5"/>
     </row>
@@ -4992,9 +5033,15 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -5010,15 +5057,9 @@
       <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
       <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -5039,27 +5080,27 @@
       <c r="D85" s="3"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
+    <row r="86" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
@@ -5084,24 +5125,24 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="8"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="8"/>
@@ -5114,27 +5155,29 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="8"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="8"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="8"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="8"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115"/>
@@ -5150,6 +5193,16 @@
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamish\Documents\UiPath\RpaUiPathProcess\Processes\FA_BillingMilestone\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E733CA9-952B-4F68-9E9B-099DB41395C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -505,7 +499,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -678,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -872,18 +866,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -966,86 +960,86 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
+      <c r="A10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>90</v>
+      <c r="A11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2025,19 +2019,17 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2115,160 +2107,161 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>60000</v>
-      </c>
-      <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B19" t="s">
         <v>151</v>
       </c>
     </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3234,24 +3227,17 @@
     <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3293,19 +3279,27 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -3314,41 +3308,33 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4338,18 +4324,16 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/Processes/FA_BillingMilestone/Data/Config.xlsx
+++ b/Processes/FA_BillingMilestone/Data/Config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -494,13 +494,19 @@
   </si>
   <si>
     <t>The billing milestone wasn't updated because: {0}</t>
+  </si>
+  <si>
+    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\TEST\FA_BillingMilestone\Bot Files</t>
+  </si>
+  <si>
+    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\TEST\FA_BillingMilestone\Email Store</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -525,6 +531,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -543,10 +555,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -560,8 +573,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -866,7 +881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,7 +892,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -972,6 +987,9 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
+      <c r="B7" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -994,6 +1012,9 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2020,6 +2041,10 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3237,7 +3262,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
